--- a/data/trans_orig/P15E_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA0E53A5-E5DB-424C-9D4D-58C6E665FFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{312B9CFB-A48C-44D2-962A-17A6A4D93F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{82CF03B9-F46A-44ED-AE7D-8BF2567B3DEB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9BF91E51-4575-45D2-929E-75677AEC5B45}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="215">
   <si>
     <t>Población que ha sufrido alguna caída que precise atención sanitaria en el último año en 2023 (Tasa respuesta: 2,64%)</t>
   </si>
@@ -161,10 +161,10 @@
     <t>49,5%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
   </si>
   <si>
     <t>12,6%</t>
@@ -173,367 +173,376 @@
     <t>3,6%</t>
   </si>
   <si>
-    <t>31,58%</t>
+    <t>29,77%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>8,65%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
   </si>
   <si>
     <t>42,08%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
   </si>
   <si>
     <t>60,31%</t>
   </si>
   <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -545,19 +554,19 @@
     <t>32,54%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
   </si>
   <si>
     <t>31,16%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -575,97 +584,100 @@
     <t>67,46%</t>
   </si>
   <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>68,84%</t>
   </si>
   <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>58,85%</t>
   </si>
   <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
   </si>
   <si>
     <t>61,19%</t>
   </si>
   <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
   </si>
   <si>
     <t>60,53%</t>
   </si>
   <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1080,7 +1092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405645D0-2240-482D-A1EE-2F7996E69234}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B2222C-38D4-47F7-92AB-314EE2305EAC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2240,7 +2252,7 @@
         <v>118</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -2249,13 +2261,13 @@
         <v>4470</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -2264,13 +2276,13 @@
         <v>5704</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,13 +2297,13 @@
         <v>817</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2300,13 +2312,13 @@
         <v>2175</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2315,13 +2327,13 @@
         <v>2992</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,13 +2348,13 @@
         <v>4992</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -2351,13 +2363,13 @@
         <v>10002</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -2366,13 +2378,13 @@
         <v>14993</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,7 +2440,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2440,13 +2452,13 @@
         <v>2557</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -2455,13 +2467,13 @@
         <v>4482</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -2470,13 +2482,13 @@
         <v>7038</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2509,7 @@
         <v>49</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2506,13 +2518,13 @@
         <v>2527</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2521,13 +2533,13 @@
         <v>2527</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,13 +2554,13 @@
         <v>2284</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -2557,13 +2569,13 @@
         <v>12248</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M30" s="7">
         <v>23</v>
@@ -2572,13 +2584,13 @@
         <v>14532</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,7 +2646,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2646,7 +2658,7 @@
         <v>159</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>22</v>
@@ -2661,13 +2673,13 @@
         <v>2617</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -2676,13 +2688,13 @@
         <v>2776</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,7 +2715,7 @@
         <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2718,7 +2730,7 @@
         <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -2733,7 +2745,7 @@
         <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,7 +2760,7 @@
         <v>709</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>22</v>
@@ -2763,13 +2775,13 @@
         <v>5424</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -2778,13 +2790,13 @@
         <v>6133</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2864,13 @@
         <v>12399</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H36" s="7">
         <v>48</v>
@@ -2867,13 +2879,13 @@
         <v>25062</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M36" s="7">
         <v>68</v>
@@ -2882,13 +2894,13 @@
         <v>37461</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2915,13 @@
         <v>2218</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -2918,13 +2930,13 @@
         <v>9800</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M37" s="7">
         <v>23</v>
@@ -2933,13 +2945,13 @@
         <v>12018</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2966,13 @@
         <v>20905</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H38" s="7">
         <v>104</v>
@@ -2969,13 +2981,13 @@
         <v>54976</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M38" s="7">
         <v>140</v>
@@ -2984,13 +2996,13 @@
         <v>75881</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,7 +3058,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15E_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{312B9CFB-A48C-44D2-962A-17A6A4D93F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A797538-3507-4158-BE10-1C42E5B1600D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9BF91E51-4575-45D2-929E-75677AEC5B45}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BFA653F-84E2-48FD-8CA6-C253334B0E0D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1092,7 +1092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B2222C-38D4-47F7-92AB-314EE2305EAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D353CD-A6ED-42E7-8DC3-AA032B2EB744}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P15E_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A797538-3507-4158-BE10-1C42E5B1600D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBC602C9-6355-4045-95C9-E9FE57141255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BFA653F-84E2-48FD-8CA6-C253334B0E0D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D2D4BB7F-22C6-41FD-964B-6A0E18106A26}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="211">
   <si>
     <t>Población que ha sufrido alguna caída que precise atención sanitaria en el último año en 2023 (Tasa respuesta: 2,64%)</t>
   </si>
@@ -161,10 +161,10 @@
     <t>49,5%</t>
   </si>
   <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
   </si>
   <si>
     <t>12,6%</t>
@@ -173,16 +173,16 @@
     <t>3,6%</t>
   </si>
   <si>
-    <t>29,77%</t>
+    <t>31,58%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
   </si>
   <si>
     <t>0%</t>
@@ -194,46 +194,46 @@
     <t>22,61%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
   </si>
   <si>
     <t>50,5%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
   </si>
   <si>
     <t>64,79%</t>
   </si>
   <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
   </si>
   <si>
     <t>60,87%</t>
   </si>
   <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -242,73 +242,73 @@
     <t>35,32%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
   </si>
   <si>
     <t>57,62%</t>
   </si>
   <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
   </si>
   <si>
     <t>48,43%</t>
   </si>
   <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>34,31%</t>
+    <t>37,94%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>19,02%</t>
+    <t>19,16%</t>
   </si>
   <si>
     <t>5,38%</t>
   </si>
   <si>
-    <t>17,02%</t>
+    <t>16,88%</t>
   </si>
   <si>
     <t>56,72%</t>
   </si>
   <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
   </si>
   <si>
     <t>38,81%</t>
   </si>
   <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -320,31 +320,31 @@
     <t>28,17%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
   </si>
   <si>
     <t>17,25%</t>
   </si>
   <si>
-    <t>44,54%</t>
+    <t>53,35%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>38,01%</t>
+    <t>33,1%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -356,19 +356,19 @@
     <t>54,57%</t>
   </si>
   <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
   </si>
   <si>
     <t>68,5%</t>
   </si>
   <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -395,25 +395,22 @@
     <t>5,22%</t>
   </si>
   <si>
-    <t>42,08%</t>
-  </si>
-  <si>
     <t>26,85%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
   </si>
   <si>
     <t>24,08%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
   </si>
   <si>
     <t>11,59%</t>
@@ -425,19 +422,19 @@
     <t>13,07%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
   </si>
   <si>
     <t>70,87%</t>
@@ -452,19 +449,16 @@
     <t>60,08%</t>
   </si>
   <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
   </si>
   <si>
     <t>63,29%</t>
   </si>
   <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
+    <t>75,16%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -473,28 +467,28 @@
     <t>52,81%</t>
   </si>
   <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
   </si>
   <si>
     <t>23,27%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
   </si>
   <si>
     <t>29,21%</t>
   </si>
   <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -503,46 +497,43 @@
     <t>13,12%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
   </si>
   <si>
     <t>47,19%</t>
   </si>
   <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>63,6%</t>
   </si>
   <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -554,19 +545,19 @@
     <t>32,54%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
   </si>
   <si>
     <t>31,16%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -584,100 +575,97 @@
     <t>67,46%</t>
   </si>
   <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>68,84%</t>
   </si>
   <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
+    <t>1,93%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
   </si>
   <si>
     <t>58,85%</t>
   </si>
   <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
   </si>
   <si>
     <t>61,19%</t>
   </si>
   <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
   </si>
   <si>
     <t>60,53%</t>
   </si>
   <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1092,7 +1080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D353CD-A6ED-42E7-8DC3-AA032B2EB744}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D708F50-6E1E-407B-8D20-9907975FF5B3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2252,7 +2240,7 @@
         <v>118</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -2261,13 +2249,13 @@
         <v>4470</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -2276,13 +2264,13 @@
         <v>5704</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,13 +2285,13 @@
         <v>817</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2312,13 +2300,13 @@
         <v>2175</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -2327,13 +2315,13 @@
         <v>2992</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2336,13 @@
         <v>4992</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -2363,13 +2351,13 @@
         <v>10002</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -2378,13 +2366,13 @@
         <v>14993</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,7 +2428,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2452,13 +2440,13 @@
         <v>2557</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -2467,13 +2455,13 @@
         <v>4482</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -2482,13 +2470,13 @@
         <v>7038</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,7 +2497,7 @@
         <v>49</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2518,13 +2506,13 @@
         <v>2527</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2533,13 +2521,13 @@
         <v>2527</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,13 +2542,13 @@
         <v>2284</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -2569,13 +2557,13 @@
         <v>12248</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M30" s="7">
         <v>23</v>
@@ -2584,13 +2572,13 @@
         <v>14532</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,7 +2634,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2658,7 +2646,7 @@
         <v>159</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>22</v>
@@ -2673,13 +2661,13 @@
         <v>2617</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -2688,13 +2676,13 @@
         <v>2776</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,7 +2703,7 @@
         <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2730,7 +2718,7 @@
         <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -2745,7 +2733,7 @@
         <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,7 +2748,7 @@
         <v>709</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>22</v>
@@ -2775,13 +2763,13 @@
         <v>5424</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -2790,13 +2778,13 @@
         <v>6133</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,13 +2852,13 @@
         <v>12399</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H36" s="7">
         <v>48</v>
@@ -2879,13 +2867,13 @@
         <v>25062</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M36" s="7">
         <v>68</v>
@@ -2894,13 +2882,13 @@
         <v>37461</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2903,13 @@
         <v>2218</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -2930,13 +2918,13 @@
         <v>9800</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M37" s="7">
         <v>23</v>
@@ -2945,13 +2933,13 @@
         <v>12018</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2954,13 @@
         <v>20905</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H38" s="7">
         <v>104</v>
@@ -2981,13 +2969,13 @@
         <v>54976</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M38" s="7">
         <v>140</v>
@@ -2996,13 +2984,13 @@
         <v>75881</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,7 +3046,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15E_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBC602C9-6355-4045-95C9-E9FE57141255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9246A6B7-6712-4971-B69F-6F833C2340A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D2D4BB7F-22C6-41FD-964B-6A0E18106A26}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CBAF8583-AC20-4BED-80BE-2DB34D2C96ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="213">
   <si>
     <t>Población que ha sufrido alguna caída que precise atención sanitaria en el último año en 2023 (Tasa respuesta: 2,64%)</t>
   </si>
@@ -71,493 +71,496 @@
     <t>No</t>
   </si>
   <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>Sí, dos o más veces</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>Sí, una vez</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
   </si>
   <si>
     <t>10,48%</t>
   </si>
   <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>Sí, dos o más veces</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>Sí, una vez</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -569,103 +572,106 @@
     <t>12,61%</t>
   </si>
   <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1080,7 +1086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D708F50-6E1E-407B-8D20-9907975FF5B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E84E00-5708-481E-A8F2-A696528501E8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1201,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>2701</v>
+        <v>2912</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1216,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>3308</v>
+        <v>3363</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1231,7 +1237,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>6009</v>
+        <v>6274</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1252,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>730</v>
+        <v>771</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1267,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1282,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1206</v>
+        <v>1252</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
@@ -1303,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>1468</v>
+        <v>1548</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>29</v>
@@ -1318,7 +1324,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="7">
-        <v>9711</v>
+        <v>9881</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>32</v>
@@ -1333,7 +1339,7 @@
         <v>23</v>
       </c>
       <c r="N6" s="7">
-        <v>11179</v>
+        <v>11430</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>35</v>
@@ -1354,7 +1360,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>4899</v>
+        <v>5231</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>38</v>
@@ -1369,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>13495</v>
+        <v>13725</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>38</v>
@@ -1384,7 +1390,7 @@
         <v>36</v>
       </c>
       <c r="N7" s="7">
-        <v>18393</v>
+        <v>18956</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1407,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>2767</v>
+        <v>2581</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1422,7 +1428,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>1863</v>
+        <v>1695</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -1437,7 +1443,7 @@
         <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>4630</v>
+        <v>4276</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>46</v>
@@ -1473,7 +1479,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>3341</v>
+        <v>2978</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>51</v>
@@ -1488,7 +1494,7 @@
         <v>5</v>
       </c>
       <c r="N9" s="7">
-        <v>3341</v>
+        <v>2978</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>54</v>
@@ -1509,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2823</v>
+        <v>2664</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>57</v>
@@ -1524,7 +1530,7 @@
         <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>9575</v>
+        <v>8503</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>60</v>
@@ -1533,22 +1539,22 @@
         <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>12398</v>
+        <v>11168</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1560,7 +1566,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>5590</v>
+        <v>5245</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>38</v>
@@ -1575,7 +1581,7 @@
         <v>22</v>
       </c>
       <c r="I11" s="7">
-        <v>14779</v>
+        <v>13176</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>38</v>
@@ -1590,7 +1596,7 @@
         <v>28</v>
       </c>
       <c r="N11" s="7">
-        <v>20369</v>
+        <v>18421</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>38</v>
@@ -1604,7 +1610,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1613,46 +1619,46 @@
         <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>2981</v>
+        <v>2813</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
       </c>
       <c r="I12" s="7">
-        <v>6934</v>
+        <v>6232</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
       </c>
       <c r="N12" s="7">
-        <v>9915</v>
+        <v>9045</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,46 +1670,46 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>672</v>
+        <v>642</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1101</v>
+        <v>1037</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,46 +1721,46 @@
         <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>4786</v>
+        <v>4527</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>4671</v>
+        <v>4304</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
       </c>
       <c r="N14" s="7">
-        <v>9457</v>
+        <v>8831</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,7 +1772,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="7">
-        <v>8439</v>
+        <v>7982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>38</v>
@@ -1781,7 +1787,7 @@
         <v>22</v>
       </c>
       <c r="I15" s="7">
-        <v>12034</v>
+        <v>10931</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -1796,7 +1802,7 @@
         <v>36</v>
       </c>
       <c r="N15" s="7">
-        <v>20473</v>
+        <v>18913</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>38</v>
@@ -1810,7 +1816,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1828,37 +1834,37 @@
         <v>49</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1389</v>
+        <v>1282</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>1389</v>
+        <v>1282</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,37 +1885,37 @@
         <v>49</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>851</v>
+        <v>798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>851</v>
+        <v>798</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1927,13 @@
         <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>2180</v>
+        <v>2080</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>38</v>
@@ -1936,31 +1942,31 @@
         <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>2691</v>
+        <v>2548</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
       </c>
       <c r="N18" s="7">
-        <v>4872</v>
+        <v>4628</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>2180</v>
+        <v>2080</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>38</v>
@@ -1987,7 +1993,7 @@
         <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>4931</v>
+        <v>4628</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
@@ -2002,7 +2008,7 @@
         <v>15</v>
       </c>
       <c r="N19" s="7">
-        <v>7112</v>
+        <v>6708</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -2016,7 +2022,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2034,7 +2040,7 @@
         <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2049,7 +2055,7 @@
         <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2064,7 +2070,7 @@
         <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,7 +2091,7 @@
         <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2100,7 +2106,7 @@
         <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2115,7 +2121,7 @@
         <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,13 +2133,13 @@
         <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>1663</v>
+        <v>1495</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>38</v>
@@ -2142,13 +2148,13 @@
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>654</v>
+        <v>540</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>38</v>
@@ -2157,13 +2163,13 @@
         <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>2318</v>
+        <v>2035</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>38</v>
@@ -2178,7 +2184,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>1663</v>
+        <v>1495</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>38</v>
@@ -2193,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>654</v>
+        <v>540</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>38</v>
@@ -2208,7 +2214,7 @@
         <v>4</v>
       </c>
       <c r="N23" s="7">
-        <v>2318</v>
+        <v>2035</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>38</v>
@@ -2222,7 +2228,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2231,46 +2237,46 @@
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>1235</v>
+        <v>1175</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
       </c>
       <c r="I24" s="7">
-        <v>4470</v>
+        <v>4182</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
       </c>
       <c r="N24" s="7">
-        <v>5704</v>
+        <v>5357</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,46 +2288,46 @@
         <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>817</v>
+        <v>781</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>2175</v>
+        <v>2043</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>2992</v>
+        <v>2824</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,43 +2339,43 @@
         <v>11</v>
       </c>
       <c r="D26" s="7">
-        <v>4992</v>
+        <v>4753</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
       </c>
       <c r="I26" s="7">
-        <v>10002</v>
+        <v>9308</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
       </c>
       <c r="N26" s="7">
-        <v>14993</v>
+        <v>14061</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>140</v>
@@ -2384,7 +2390,7 @@
         <v>16</v>
       </c>
       <c r="D27" s="7">
-        <v>7043</v>
+        <v>6709</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>38</v>
@@ -2399,7 +2405,7 @@
         <v>44</v>
       </c>
       <c r="I27" s="7">
-        <v>16646</v>
+        <v>15533</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>38</v>
@@ -2414,7 +2420,7 @@
         <v>60</v>
       </c>
       <c r="N27" s="7">
-        <v>23689</v>
+        <v>22242</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>38</v>
@@ -2437,7 +2443,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>2557</v>
+        <v>2415</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>142</v>
@@ -2452,7 +2458,7 @@
         <v>7</v>
       </c>
       <c r="I28" s="7">
-        <v>4482</v>
+        <v>4113</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>145</v>
@@ -2467,7 +2473,7 @@
         <v>11</v>
       </c>
       <c r="N28" s="7">
-        <v>7038</v>
+        <v>6528</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>148</v>
@@ -2503,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="7">
-        <v>2527</v>
+        <v>2309</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>152</v>
@@ -2518,7 +2524,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>2527</v>
+        <v>2309</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>155</v>
@@ -2539,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>2284</v>
+        <v>2174</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>158</v>
@@ -2554,7 +2560,7 @@
         <v>20</v>
       </c>
       <c r="I30" s="7">
-        <v>12248</v>
+        <v>11014</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>161</v>
@@ -2569,16 +2575,16 @@
         <v>23</v>
       </c>
       <c r="N30" s="7">
-        <v>14532</v>
+        <v>13188</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,7 +2596,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="7">
-        <v>4841</v>
+        <v>4589</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>38</v>
@@ -2605,7 +2611,7 @@
         <v>31</v>
       </c>
       <c r="I31" s="7">
-        <v>19257</v>
+        <v>17436</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>38</v>
@@ -2620,7 +2626,7 @@
         <v>38</v>
       </c>
       <c r="N31" s="7">
-        <v>24098</v>
+        <v>22025</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>38</v>
@@ -2634,7 +2640,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2643,46 +2649,46 @@
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
       </c>
       <c r="I32" s="7">
-        <v>2617</v>
+        <v>2208</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
       </c>
       <c r="N32" s="7">
-        <v>2776</v>
+        <v>2366</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,7 +2709,7 @@
         <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2718,7 +2724,7 @@
         <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -2733,7 +2739,7 @@
         <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,46 +2751,46 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>709</v>
+        <v>620</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H34" s="7">
         <v>8</v>
       </c>
       <c r="I34" s="7">
-        <v>5424</v>
+        <v>4514</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
       </c>
       <c r="N34" s="7">
-        <v>6133</v>
+        <v>5134</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,7 +2802,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="7">
-        <v>868</v>
+        <v>778</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>38</v>
@@ -2811,7 +2817,7 @@
         <v>12</v>
       </c>
       <c r="I35" s="7">
-        <v>8041</v>
+        <v>6722</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>38</v>
@@ -2826,7 +2832,7 @@
         <v>14</v>
       </c>
       <c r="N35" s="7">
-        <v>8909</v>
+        <v>7500</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>38</v>
@@ -2849,46 +2855,46 @@
         <v>20</v>
       </c>
       <c r="D36" s="7">
-        <v>12399</v>
+        <v>12054</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H36" s="7">
         <v>48</v>
       </c>
       <c r="I36" s="7">
-        <v>25062</v>
+        <v>23074</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M36" s="7">
         <v>68</v>
       </c>
       <c r="N36" s="7">
-        <v>37461</v>
+        <v>35127</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,46 +2906,46 @@
         <v>4</v>
       </c>
       <c r="D37" s="7">
-        <v>2218</v>
+        <v>2194</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
       </c>
       <c r="I37" s="7">
-        <v>9800</v>
+        <v>9003</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M37" s="7">
         <v>23</v>
       </c>
       <c r="N37" s="7">
-        <v>12018</v>
+        <v>11197</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,46 +2957,46 @@
         <v>36</v>
       </c>
       <c r="D38" s="7">
-        <v>20905</v>
+        <v>19862</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H38" s="7">
         <v>104</v>
       </c>
       <c r="I38" s="7">
-        <v>54976</v>
+        <v>50613</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M38" s="7">
         <v>140</v>
       </c>
       <c r="N38" s="7">
-        <v>75881</v>
+        <v>70474</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,7 +3008,7 @@
         <v>60</v>
       </c>
       <c r="D39" s="7">
-        <v>35522</v>
+        <v>34109</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>38</v>
@@ -3017,7 +3023,7 @@
         <v>171</v>
       </c>
       <c r="I39" s="7">
-        <v>89838</v>
+        <v>82690</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>38</v>
@@ -3032,7 +3038,7 @@
         <v>231</v>
       </c>
       <c r="N39" s="7">
-        <v>125360</v>
+        <v>116798</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>
@@ -3046,7 +3052,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
